--- a/breathing-timer.xlsx
+++ b/breathing-timer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pjbla\OneDrive\Desktop\timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BC34F-CD32-432B-BE20-F45F727D9C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F93A73-542B-495C-A872-AC1C62C376A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27525" yWindow="4935" windowWidth="20310" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
